--- a/medicine/Psychotrope/Pelaverga/Pelaverga.xlsx
+++ b/medicine/Psychotrope/Pelaverga/Pelaverga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pelaverga est un cépage italien de raisins noir.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il  provient du nord de l'Italie. Il en reste pas plus de 100 ha en Italie.
 Elle est classée cépage d'appoint en DOC Collina Torinese, Verduno Pelaverga et Colline Saluzzesi.
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré carminé.
 Jeunes feuilles duveteuses à plages bronzées.
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque : 25 jours après le chasselas. 
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grosse et les baies sont de taille grosse. La grappe est conique et ailée. Le cépage est de bonne vigueur mais d'une fertilité bonne. Elle est robuste et bien adapté aux situations en pente et à des altitudes de 300 à 400 m.
 La pelaverga a été remplacée souvent par nebbiolo et barbera.
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La pelaverga est connue sous les noms de : caleura, cari, carola, fra Germano, peilaverga, pela verga, pelaverga di Saluzzo, pelaverga piccolo, pella verda, taddone, uva coussa.
 </t>
